--- a/data_exploration/acl/tables/example_lengths_pos_mbert.xlsx
+++ b/data_exploration/acl/tables/example_lengths_pos_mbert.xlsx
@@ -599,19 +599,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>656</v>
+        <v>4477</v>
       </c>
       <c r="C9">
-        <v>546</v>
+        <v>4226</v>
       </c>
       <c r="D9">
-        <v>655</v>
+        <v>4451</v>
       </c>
       <c r="E9">
-        <v>656</v>
+        <v>4477</v>
       </c>
       <c r="F9">
-        <v>656</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="10" spans="1:6">
